--- a/TPs/TP1/GRAFICOS TP1.xlsx
+++ b/TPs/TP1/GRAFICOS TP1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaquinaVieja\UTN\6t0\Algoritmos Geneticos\AlgoritmosGeneticos\TPs\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D3174C-CE0E-4D8C-A710-8FDE4E7EFB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5378CF0-D156-4F5D-9111-3701911C16B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4560" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{C50BD302-EDF8-4664-B285-F3359DF0D1B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{C50BD302-EDF8-4664-B285-F3359DF0D1B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos" sheetId="1" r:id="rId1"/>
     <sheet name="Datos" sheetId="2" r:id="rId2"/>
+    <sheet name="Graficos (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Datos2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>MAX</t>
   </si>
@@ -53,7 +55,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -103,8 +105,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1898,6 +1900,1781 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MAX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos2!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #.##0000000000000000_-;\-* #.##0000000000000000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.67806428552472198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85253555534200898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73808158482606401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67851334891275406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67851490775900103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67931800063020598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67931957268216203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67851490775900103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67851490775900103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70450030351785198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70449950930975902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75793514095644199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67851412833565405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67851412833565405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67851412833565405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67851415288441397</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67851334891275406</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67851492003338798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73097236254238196</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.73097236254238196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73097238802245101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73097399326766099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73097401874775803</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75770930656538704</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75770930656538704</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75770930656538704</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.75770930656538704</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75771013670572396</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75771013670572396</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73085484682102797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.730854853190533</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73097388497725402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73098530647436499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.75760388243881405</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.730973916827373</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.730973916827373</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73064617762517103</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73064617762517103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.730660901892493</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.70418016763169999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62799686791716103</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.62799529737274995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.83815028892061805</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.83815028892061805</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.83815028892061805</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.83815041169947502</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.83815072546770797</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83815072546770797</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.83815072546770797</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83815072546770797</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.83817704128196002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83817704128196002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83817704128196002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83817704128196002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83817660472801703</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.83817702763964796</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.838149183911305</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.84172910751930097</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.84172910751930097</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.95649344191623897</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.95649296099384895</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.95602487682073001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98682418142069495</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.955905466161033</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.95590558271245796</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.97124312916467304</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95590558271245796</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.955905466161033</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.94068998909022306</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94116351299772005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.94116351299772005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.94116351299772005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.94116351299772005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.84521633591026002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.89623771270953001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89624132408067103</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.89623771270953001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.89623771270953001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.89623771270953001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.89623771270953001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.896241775502575</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.896241775502575</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.896241775502575</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.92607030577053395</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92607030577053395</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.92607030218559205</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.92562616682972598</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.92562617041380801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.92562989786281502</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.92562989786281502</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.92562989786281502</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92562989786281502</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.90734436377071004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.90734481798021505</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.90734481798021505</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.90734481798021505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.90737024679684497</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.90735935274441903</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.96092888429073597</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.93735603648475097</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.90734481798021505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68CC-4C7A-BF32-4E7CFFEB461B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1332581632"/>
+        <c:axId val="1332579552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1332581632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332579552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1332579552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Maximos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> por ciclo</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #.##0000000000000000_-;\-* #.##0000000000000000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332581632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MIN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos2!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.0732067929302799E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30119988065223202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37102669648818398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63689329842513098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63689329842513098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103531576686726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63730417838812503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63730399400330495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65301626397430401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65299160312870397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65296847196776797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60348767291879502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60346323067885099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60346323067885099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60348693785013297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60348693785013297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60348693785013297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32914498580438001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60343952397322997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60343359736958502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.60343359736958502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60328546488508705</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32915483429016901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36598890749533802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60319063167851505</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60319053909420794</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60319053909420794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60319053909420794</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60319053909420794</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60319063167851505</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60319053909420794</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60319053909420794</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60319053909420794</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57945605215971097</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.603190562240284</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.603190562240284</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60319211302838305</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.60319211302838305</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.60319211302838305</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.603190562240284</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.603190562240284</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.603190562240284</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.603190562240284</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.60319211302838305</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.60319213617448997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.62461408808587404</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62461421763029301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.57619544338700002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.57582486071241501</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.57582477025268497</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.57645766462107395</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57645766462107395</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.62461417052322998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.62480713595127602</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.62489759875477302</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.62489789324073697</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.40227920425115798</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.62489789324073697</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.781906164350475</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.78180667236769197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.78179866163451905</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.78179866163451905</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.78179866163451905</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.78179866163451905</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.78525635833461804</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.83759872066531205</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.83748697785488002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.83748697785488002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83748697785488002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.838045630036792</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.78180667236769197</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.78180667236769197</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44282146878585799</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.78180667236769197</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.78180667236769197</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.78180667236769197</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.78180667236769197</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.781810045320254</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.781810045320254</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78137920953777895</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.781810045320254</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.781810045320254</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.781810045320254</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.78140197088373298</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.78137499451009296</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.14742081292471701</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.78140239239326603</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.89971204539152605</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89971204539152605</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89970843056811101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89971204539152605</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.89970074158370805</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.89970073805017503</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.89600660009047794</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.89600660009047794</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.89600660009047794</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.89971204892508105</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.89991830729953604</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.89991830729953604</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.89991830376557602</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.89991830729953604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8614-40C9-A6D6-67ACB5D9EF3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2047136720"/>
+        <c:axId val="2047135056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2047136720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047135056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2047135056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047136720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PROM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos2!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.230060327695077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.559493518759278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63706703115993801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65769732821239102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66195084656569803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60237302678470805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66683468100086196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66262248872188301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67337169110188499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66835629867198298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67859594339922202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67383317149738597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65344364488221096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66333530645127603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65583741419813202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66317417277683</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65584125540461402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62106685062558398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66124483797099698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66648608440588397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65368724164744996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68670785394471301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61301252716411503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63021835965186301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66426736677692</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65639765687376395</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66392764456740205</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65418794034957095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66911318581716495</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63873611907157002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.63874755444292497</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65885120991481005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67461263688279904</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.654602072719217</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64153003944928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.62876565547147001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62854743988309203</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62586304756685796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62828462948057195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62809728524851605</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62013872013120896</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.614878158841075</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63590332480451595</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.66123272079228801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71600895157518796</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76300530584715998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80570669947945694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.77466948756477205</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.74843436505401995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.71674018899727798</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.74791116529905</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.74788195313753703</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.75273223926795096</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.74718930642983505</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.76851316215487298</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.78423243984302204</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.73502214440247604</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.790214691389996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.82721994609612204</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.85613196922183199</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87962336285629295</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.85653096216034397</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.88108150837696797</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.85935974645985902</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.86493631087949496</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.89382178591958095</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.89075524443363696</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.89083345736636699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.87976420792524701</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.86955812791022702</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84242201498923297</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.82023827679359096</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.79194165304948605</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.79939610484628099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.81807757207077303</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.81841360266438001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.80062918222210899</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.82351577123727304</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.82822622564025195</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.80529769290807696</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81713227202105099</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82926652497536502</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.84036391217876305</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.86591495201684798</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85404473379192503</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.57746956881108003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87884444916710402</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.90248873800567697</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.90246558421593603</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90246531214402603</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90320756463537399</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90395009660649805</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.90056379942119402</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.90021686628043396</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.90067990722093305</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.90151489226088599</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.901676849435882</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.90162585003570195</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.90765560345958995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.90529467762143301</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.90095264265603403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC9C-4EC5-9AD5-2C11041D4DCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2046973680"/>
+        <c:axId val="2046977840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2046973680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046977840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2046977840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046973680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2018,6 +3795,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3038,6 +4935,1541 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3650,6 +7082,125 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389281</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>77855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6674B23-7779-4383-BD42-4031EC1C2A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>372716</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>77855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BF5FE9-6C38-435E-8445-AFD794FD3843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393883</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393883</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48316</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C5DCC1-31AB-4C4F-BEF3-9433C623C35A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3965,7 +7516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD692700-4A32-45C9-B7FA-3240093B4217}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -4093,7 +7644,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5227,4 +8778,1272 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7184D23-B498-4D1D-943C-09CD36877758}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9546CCA2-1525-4BD5-9B4F-D3F8EF1EF939}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.67806428552472198</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6.0732067929302799E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.230060327695077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0.85253555534200898</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.30119988065223202</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.559493518759278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.73808158482606401</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.37102669648818398</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.63706703115993801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0.67851334891275406</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.63689329842513098</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.65769732821239102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.67851490775900103</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.63689329842513098</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.66195084656569803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0.67931800063020598</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.103531576686726</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.60237302678470805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0.67931957268216203</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.63730417838812503</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.66683468100086196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0.67851490775900103</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.63730399400330495</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.66262248872188301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>0.67851490775900103</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.65301626397430401</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.67337169110188499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0.70450030351785198</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.65299160312870397</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.66835629867198298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0.70449950930975902</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.65296847196776797</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.67859594339922202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>0.75793514095644199</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.60348767291879502</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.67383317149738597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0.67851412833565405</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.60346323067885099</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.65344364488221096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>0.67851412833565405</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.60346323067885099</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.66333530645127603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>0.67851412833565405</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.60348693785013297</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.65583741419813202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>0.67851415288441397</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.60348693785013297</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.66317417277683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>0.67851334891275406</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.60348693785013297</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.65584125540461402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>0.67851492003338798</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.32914498580438001</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.62106685062558398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>0.73097236254238196</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.60343952397322997</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.66124483797099698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>0.73097236254238196</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.60343359736958502</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.66648608440588397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>0.73097238802245101</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.60343359736958502</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.65368724164744996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>0.73097399326766099</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.60328546488508705</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.68670785394471301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>0.73097401874775803</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.32915483429016901</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.61301252716411503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>0.75770930656538704</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.36598890749533802</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.63021835965186301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>0.75770930656538704</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.60319063167851505</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.66426736677692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>0.75770930656538704</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.60319053909420794</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.65639765687376395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>0.75770930656538704</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.60319053909420794</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.66392764456740205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>0.75771013670572396</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.60319053909420794</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.65418794034957095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>0.75771013670572396</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.60319053909420794</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.66911318581716495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>0.73085484682102797</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.60319063167851505</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.63873611907157002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>0.730854853190533</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.60319053909420794</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.63874755444292497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>0.73097388497725402</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.60319053909420794</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.65885120991481005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>0.73098530647436499</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.60319053909420794</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.67461263688279904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>0.75760388243881405</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.57945605215971097</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.654602072719217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>0.730973916827373</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.603190562240284</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.64153003944928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>0.730973916827373</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.603190562240284</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.62876565547147001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>0.73064617762517103</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.60319211302838305</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.62854743988309203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>0.73064617762517103</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.60319211302838305</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.62586304756685796</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>0.730660901892493</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.60319211302838305</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.62828462948057195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>0.70418016763169999</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.603190562240284</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.62809728524851605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>0.62799686791716103</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.603190562240284</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.62013872013120896</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>0.62799529737274995</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.603190562240284</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.614878158841075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>0.83815028892061805</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.603190562240284</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.63590332480451595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>0.83815028892061805</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.60319211302838305</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.66123272079228801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>0.83815028892061805</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.60319213617448997</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.71600895157518796</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>0.83815041169947502</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.62461408808587404</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.76300530584715998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>0.83815072546770797</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.62461421763029301</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.80570669947945694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>0.83815072546770797</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.57619544338700002</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.77466948756477205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>0.83815072546770797</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.57582486071241501</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.74843436505401995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>0.83815072546770797</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.57582477025268497</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.71674018899727798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>0.83817704128196002</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.57645766462107395</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.74791116529905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>0.83817704128196002</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.57645766462107395</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.74788195313753703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>0.83817704128196002</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.62461417052322998</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.75273223926795096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>0.83817704128196002</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.62480713595127602</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.74718930642983505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>0.83817660472801703</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.62489759875477302</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.76851316215487298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>0.83817702763964796</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.62489789324073697</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.78423243984302204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>0.838149183911305</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.40227920425115798</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.73502214440247604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>0.84172910751930097</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.62489789324073697</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0.790214691389996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>0.84172910751930097</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.781906164350475</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.82721994609612204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>0.95649344191623897</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.78180667236769197</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.85613196922183199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>0.95649296099384895</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.78179866163451905</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.87962336285629295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>0.95602487682073001</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.78179866163451905</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.85653096216034397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>0.98682418142069495</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.78179866163451905</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.88108150837696797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>0.955905466161033</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.78179866163451905</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0.85935974645985902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>0.95590558271245796</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.78525635833461804</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.86493631087949496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>0.97124312916467304</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.83759872066531205</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.89382178591958095</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>0.95590558271245796</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.83748697785488002</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.89075524443363696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>0.955905466161033</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.83748697785488002</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.89083345736636699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>0.94068998909022306</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.83748697785488002</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.87976420792524701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>0.94116351299772005</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.838045630036792</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.86955812791022702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>0.94116351299772005</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.78180667236769197</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.84242201498923297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>0.94116351299772005</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.78180667236769197</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.82023827679359096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>0.94116351299772005</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.44282146878585799</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.79194165304948605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>0.84521633591026002</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.78180667236769197</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.79939610484628099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>0.89623771270953001</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.78180667236769197</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.81807757207077303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>0.89624132408067103</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.78180667236769197</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.81841360266438001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>0.89623771270953001</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.78180667236769197</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.80062918222210899</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>0.89623771270953001</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.781810045320254</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.82351577123727304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>0.89623771270953001</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.781810045320254</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.82822622564025195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>0.89623771270953001</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.78137920953777895</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.80529769290807696</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>0.896241775502575</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.781810045320254</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.81713227202105099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>0.896241775502575</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.781810045320254</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.82926652497536502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>0.896241775502575</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.781810045320254</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.84036391217876305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>0.92607030577053395</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.78140197088373298</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.86591495201684798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>0.92607030577053395</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.78137499451009296</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.85404473379192503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>0.92607030218559205</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.14742081292471701</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.57746956881108003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>0.92562616682972598</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.78140239239326603</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.87884444916710402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>0.92562617041380801</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.89971204539152605</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.90248873800567697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>0.92562989786281502</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.89971204539152605</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.90246558421593603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>0.92562989786281502</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.89970843056811101</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.90246531214402603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>0.92562989786281502</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.89971204539152605</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.90320756463537399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>0.92562989786281502</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.89970074158370805</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.90395009660649805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>0.90734436377071004</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.89970073805017503</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.90056379942119402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>0.90734481798021505</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.89600660009047794</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.90021686628043396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>0.90734481798021505</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.89600660009047794</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.90067990722093305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>0.90734481798021505</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.89600660009047794</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.90151489226088599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>0.90737024679684497</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.89971204892508105</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.901676849435882</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>0.90735935274441903</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.89991830729953604</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.90162585003570195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>0.96092888429073597</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.89991830729953604</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.90765560345958995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>0.93735603648475097</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.89991830376557602</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.90529467762143301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>0.90734481798021505</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.89991830729953604</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.90095264265603403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>